--- a/src/test/java/Resources/Data/SignInTrainer.xlsx
+++ b/src/test/java/Resources/Data/SignInTrainer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marketplace\NewIsthmus-101\isthmus-AKC-Test\src\test\java\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian.viquez/Documents/AutomationProjects/MarketplaceStage/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C75DF7D-008A-463E-8699-04AF43CA772B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE08971D-F33D-C94D-9E91-8960DD63A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>Jimen@123</t>
+    <t>CypresHill2*</t>
   </si>
   <si>
-    <t>jblancor77+stat01@gmail.com</t>
+    <t>sxv+4@akc.org</t>
   </si>
 </sst>
 </file>
@@ -384,16 +384,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -411,8 +411,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Jimen@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
